--- a/OfferCruzMailBot/plantillas/perfil.xlsx
+++ b/OfferCruzMailBot/plantillas/perfil.xlsx
@@ -175,22 +175,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,16 +494,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -512,96 +514,70 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>7</v>
-      </c>
-      <c r="B16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+  <dataValidations count="2">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
       <formula1>3</formula1>
-      <formula2>15</formula2>
+      <formula2>50</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>1990</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:C10 B11:B16">
-      <formula1>0</formula1>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
+      <formula1>3</formula1>
+      <formula2>200</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
